--- a/suppliers.xlsx
+++ b/suppliers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Rank No.</t>
   </si>
@@ -45,78 +45,21 @@
     <t>SAPPHIRE COOLING SERVICES LIMITED</t>
   </si>
   <si>
-    <t>8.05</t>
-  </si>
-  <si>
-    <t>6.40</t>
-  </si>
-  <si>
-    <t>10.40</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
     <t>SAPPHIRE ENVELOPES AND PRINT LIMITED</t>
   </si>
   <si>
-    <t>18.40</t>
-  </si>
-  <si>
-    <t>19.40</t>
-  </si>
-  <si>
-    <t>15.40</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>24.98</t>
-  </si>
-  <si>
     <t>SAPPHIRE CARS</t>
   </si>
   <si>
-    <t>17.40</t>
-  </si>
-  <si>
-    <t>25.98</t>
+    <t>MILWARD-BROWN &amp; ASSOCIATES LIMITED</t>
   </si>
   <si>
     <t>MILLVILL INDUSTRIAL SUPPLIES LIMITED</t>
   </si>
   <si>
-    <t>MILWARD-BROWN &amp; ASSOCIATES LIMITED</t>
-  </si>
-  <si>
     <t>Dr M Meyer- Westgate Dental Clinic</t>
   </si>
   <si>
-    <t>12.65</t>
-  </si>
-  <si>
-    <t>9.40</t>
-  </si>
-  <si>
-    <t>20.40</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>Michael J Fisher &amp; Co Solicitors</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>17.55</t>
-  </si>
-  <si>
     <t>Overall Dimension Weightings</t>
   </si>
   <si>
@@ -132,12 +75,12 @@
     <t>Resource Quantity</t>
   </si>
   <si>
+    <t>Scalability</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Scalability</t>
-  </si>
-  <si>
     <t>Requirements &amp; Weightings</t>
   </si>
   <si>
@@ -162,7 +105,49 @@
     <t>Relative Weighting</t>
   </si>
   <si>
-    <t>200</t>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Product Delivery</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>Security Clearance</t>
+  </si>
+  <si>
+    <t>Service Capability</t>
+  </si>
+  <si>
+    <t>User experience and design</t>
+  </si>
+  <si>
+    <t>Performance analysis and data</t>
+  </si>
+  <si>
+    <t>Statistical modelling</t>
+  </si>
+  <si>
+    <t>Service delivery</t>
+  </si>
+  <si>
+    <t>Content design and copywriting</t>
+  </si>
+  <si>
+    <t>User research</t>
+  </si>
+  <si>
+    <t>11-25</t>
+  </si>
+  <si>
+    <t>Remote (Supplier's own site)</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
   </si>
 </sst>
 </file>
@@ -543,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="9" width="15" customWidth="1"/>
+    <col min="1" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -591,20 +576,20 @@
       <c r="D2">
         <v>78.35</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="E2">
+        <v>8.05</v>
+      </c>
+      <c r="F2">
+        <v>6.4</v>
+      </c>
+      <c r="G2">
+        <v>10.4</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>13.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -612,28 +597,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>78.18</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
+      <c r="E3">
+        <v>18.4</v>
+      </c>
+      <c r="F3">
+        <v>19.4</v>
+      </c>
+      <c r="G3">
+        <v>15.4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>24.98</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -641,28 +626,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>78.18</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
+      <c r="E4">
+        <v>17.4</v>
+      </c>
+      <c r="F4">
+        <v>19.4</v>
+      </c>
+      <c r="G4">
+        <v>15.4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>25.98</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -670,28 +655,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>77.18</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
+      <c r="E5">
+        <v>18.4</v>
+      </c>
+      <c r="F5">
+        <v>18.4</v>
+      </c>
+      <c r="G5">
+        <v>15.4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>24.98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -699,28 +684,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>77.18</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+      <c r="E6">
+        <v>18.4</v>
+      </c>
+      <c r="F6">
+        <v>18.4</v>
+      </c>
+      <c r="G6">
+        <v>15.4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>24.98</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -728,57 +713,28 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>75.95</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>57.95</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
+      <c r="E7">
+        <v>12.65</v>
+      </c>
+      <c r="F7">
+        <v>9.4</v>
+      </c>
+      <c r="G7">
+        <v>20.4</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>
@@ -792,30 +748,30 @@
   <dimension ref="A1:B6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>23</v>
@@ -823,18 +779,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -845,74 +801,261 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="5" width="15" customWidth="1"/>
+    <col min="1" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>78</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/suppliers.xlsx
+++ b/suppliers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Rank No.</t>
   </si>
@@ -42,22 +42,43 @@
     <t>Location Score</t>
   </si>
   <si>
+    <t>Price Score</t>
+  </si>
+  <si>
+    <t>SAPPHIRE CARS</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>11.25</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
     <t>SAPPHIRE COOLING SERVICES LIMITED</t>
   </si>
   <si>
-    <t>SAPPHIRE ENVELOPES AND PRINT LIMITED</t>
-  </si>
-  <si>
-    <t>SAPPHIRE CARS</t>
-  </si>
-  <si>
-    <t>MILWARD-BROWN &amp; ASSOCIATES LIMITED</t>
-  </si>
-  <si>
-    <t>MILLVILL INDUSTRIAL SUPPLIES LIMITED</t>
-  </si>
-  <si>
-    <t>Dr M Meyer- Westgate Dental Clinic</t>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>44.40</t>
+  </si>
+  <si>
+    <t>SAPPHIRE ENERGY RECOVERY LIMITED</t>
+  </si>
+  <si>
+    <t>7.50</t>
   </si>
   <si>
     <t>Overall Dimension Weightings</t>
@@ -75,12 +96,21 @@
     <t>Resource Quantity</t>
   </si>
   <si>
+    <t>Security Clearance</t>
+  </si>
+  <si>
+    <t>Service Capability</t>
+  </si>
+  <si>
     <t>Scalability</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
+    <t>Pricing</t>
+  </si>
+  <si>
     <t>Requirements &amp; Weightings</t>
   </si>
   <si>
@@ -111,43 +141,25 @@
     <t>Data Scientist</t>
   </si>
   <si>
-    <t>Product Delivery</t>
-  </si>
-  <si>
-    <t>Product Manager</t>
-  </si>
-  <si>
-    <t>Security Clearance</t>
-  </si>
-  <si>
-    <t>Service Capability</t>
-  </si>
-  <si>
     <t>User experience and design</t>
   </si>
   <si>
-    <t>Performance analysis and data</t>
-  </si>
-  <si>
-    <t>Statistical modelling</t>
-  </si>
-  <si>
-    <t>Service delivery</t>
-  </si>
-  <si>
-    <t>Content design and copywriting</t>
-  </si>
-  <si>
     <t>User research</t>
   </si>
   <si>
     <t>11-25</t>
   </si>
   <si>
+    <t>South East England</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
     <t>Remote (Supplier's own site)</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
   </si>
 </sst>
 </file>
@@ -528,13 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="9" width="10" customWidth="1"/>
+    <col min="1" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,179 +574,104 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>78.35</v>
-      </c>
-      <c r="E2">
-        <v>8.05</v>
-      </c>
-      <c r="F2">
-        <v>6.4</v>
-      </c>
-      <c r="G2">
-        <v>10.4</v>
-      </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126.25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>78.18</v>
-      </c>
-      <c r="E3">
-        <v>18.4</v>
-      </c>
-      <c r="F3">
-        <v>19.4</v>
-      </c>
-      <c r="G3">
-        <v>15.4</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>24.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>28.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>78.18</v>
-      </c>
-      <c r="E4">
-        <v>17.4</v>
-      </c>
-      <c r="F4">
-        <v>19.4</v>
-      </c>
-      <c r="G4">
-        <v>15.4</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>25.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>77.18</v>
-      </c>
-      <c r="E5">
-        <v>18.4</v>
-      </c>
-      <c r="F5">
-        <v>18.4</v>
-      </c>
-      <c r="G5">
-        <v>15.4</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>24.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>77.18</v>
-      </c>
-      <c r="E6">
-        <v>18.4</v>
-      </c>
-      <c r="F6">
-        <v>18.4</v>
-      </c>
-      <c r="G6">
-        <v>15.4</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>24.98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>75.95</v>
-      </c>
-      <c r="E7">
-        <v>12.65</v>
-      </c>
-      <c r="F7">
-        <v>9.4</v>
-      </c>
-      <c r="G7">
-        <v>20.4</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>13.5</v>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -745,52 +682,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
         <v>20</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -801,88 +762,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="5" width="10" customWidth="1"/>
+    <col min="1" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -890,172 +851,121 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>50</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
